--- a/seagrass/final_spreadsheets/seagrass_epifauna_data_entry_spreadsheet_marinegeo.xlsx
+++ b/seagrass/final_spreadsheets/seagrass_epifauna_data_entry_spreadsheet_marinegeo.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <workbookPr defaultThemeVersion="166925"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
@@ -12,11 +12,24 @@
     <sheet name="epifauna data" sheetId="5" state="visible" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
   <si>
     <t>definition</t>
   </si>
@@ -167,6 +180,24 @@
     <t xml:space="preserve">macrophyte mass data</t>
   </si>
   <si>
+    <t xml:space="preserve">mesh_bag_length</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The length of the mesh bag used to collect samples. Please include the unit of measurement.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mesh_bag_width</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The width or diameter of opening of the mesh bag used to collect samples. Please include the unit of measurement.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mesh_size</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The mesh size (for instance, "1 mm")</t>
+  </si>
+  <si>
     <t xml:space="preserve">quadrat</t>
   </si>
   <si>
@@ -281,7 +312,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
   <fonts count="9">
     <font>
@@ -478,6 +509,7 @@
       </fill>
     </dxf>
   </dxfs>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -835,10 +867,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="true" workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
@@ -1203,121 +1235,111 @@
       <c r="B20" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="C20" s="10" t="s">
-        <v>44</v>
-      </c>
+      <c r="C20" s="10"/>
       <c r="D20" s="10"/>
-      <c r="E20" s="10" t="s">
-        <v>45</v>
-      </c>
+      <c r="E20" s="10"/>
       <c r="F20" s="10" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="10" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="C21" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="D21" s="10" t="s">
-        <v>48</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="C21" s="10"/>
+      <c r="D21" s="10"/>
       <c r="E21" s="10"/>
       <c r="F21" s="10" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="10" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="C22" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="D22" s="10" t="s">
-        <v>51</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="C22" s="10"/>
+      <c r="D22" s="10"/>
       <c r="E22" s="10"/>
       <c r="F22" s="10" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="10" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="D23" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="E23" s="10"/>
+        <v>50</v>
+      </c>
+      <c r="D23" s="10"/>
+      <c r="E23" s="10" t="s">
+        <v>51</v>
+      </c>
       <c r="F23" s="10" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="10" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="D24" s="10"/>
+        <v>50</v>
+      </c>
+      <c r="D24" s="10" t="s">
+        <v>54</v>
+      </c>
       <c r="E24" s="10"/>
       <c r="F24" s="10" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="B25" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="C25" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="D25" s="10" t="s">
         <v>57</v>
-      </c>
-      <c r="B25" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="C25" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="D25" s="10" t="s">
-        <v>48</v>
       </c>
       <c r="E25" s="10"/>
       <c r="F25" s="10" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="B26" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="B26" s="10" t="s">
+      <c r="C26" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="D26" s="10" t="s">
         <v>60</v>
-      </c>
-      <c r="C26" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="D26" s="10" t="s">
-        <v>51</v>
       </c>
       <c r="E26" s="10"/>
       <c r="F26" s="10" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
     </row>
     <row r="27">
@@ -1333,7 +1355,7 @@
       <c r="D27" s="10"/>
       <c r="E27" s="10"/>
       <c r="F27" s="10" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
     </row>
     <row r="28">
@@ -1344,7 +1366,7 @@
         <v>64</v>
       </c>
       <c r="C28" s="10" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="D28" s="10" t="s">
         <v>54</v>
@@ -1362,12 +1384,14 @@
         <v>66</v>
       </c>
       <c r="C29" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="D29" s="10"/>
+        <v>50</v>
+      </c>
+      <c r="D29" s="10" t="s">
+        <v>57</v>
+      </c>
       <c r="E29" s="10"/>
       <c r="F29" s="10" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
     </row>
     <row r="30">
@@ -1380,77 +1404,127 @@
       <c r="C30" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="D30" s="10" t="s">
-        <v>69</v>
-      </c>
+      <c r="D30" s="10"/>
       <c r="E30" s="10"/>
       <c r="F30" s="10" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="B31" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="B31" s="10" t="s">
-        <v>71</v>
-      </c>
       <c r="C31" s="10" t="s">
-        <v>72</v>
+        <v>50</v>
       </c>
       <c r="D31" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="E31" s="10" t="s">
-        <v>74</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="E31" s="10"/>
       <c r="F31" s="10" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="10" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="B32" s="10" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C32" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="D32" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="E32" s="10" t="s">
-        <v>74</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="D32" s="10"/>
+      <c r="E32" s="10"/>
       <c r="F32" s="10" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="10" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="B33" s="10" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C33" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="D33" s="10"/>
+        <v>27</v>
+      </c>
+      <c r="D33" s="10" t="s">
+        <v>75</v>
+      </c>
       <c r="E33" s="10"/>
       <c r="F33" s="10" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="11"/>
-      <c r="B34" s="11"/>
-      <c r="C34" s="11"/>
-      <c r="D34" s="11"/>
-      <c r="E34" s="11"/>
-      <c r="F34" s="11"/>
+      <c r="A34" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="B34" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="C34" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="D34" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="E34" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="F34" s="10" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="B35" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="C35" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="D35" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="E35" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="F35" s="10" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="B36" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="C36" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="D36" s="10"/>
+      <c r="E36" s="10"/>
+      <c r="F36" s="10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="11"/>
+      <c r="B37" s="11"/>
+      <c r="C37" s="11"/>
+      <c r="D37" s="11"/>
+      <c r="E37" s="11"/>
+      <c r="F37" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -1475,10 +1549,10 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <cols>
@@ -1488,50 +1562,62 @@
     <col min="4" max="4" width="9.71" hidden="0" customWidth="1"/>
     <col min="5" max="5" width="13.71" hidden="0" customWidth="1"/>
     <col min="6" max="6" width="8.71" hidden="0" customWidth="1"/>
-    <col min="7" max="7" width="22.71" hidden="0" customWidth="1"/>
-    <col min="8" max="8" width="23.71" hidden="0" customWidth="1"/>
-    <col min="9" max="9" width="21.71" hidden="0" customWidth="1"/>
-    <col min="10" max="10" width="14.71" hidden="0" customWidth="1"/>
-    <col min="11" max="11" width="17.71" hidden="0" customWidth="1"/>
+    <col min="7" max="7" width="15.71" hidden="0" customWidth="1"/>
+    <col min="8" max="8" width="14.71" hidden="0" customWidth="1"/>
+    <col min="9" max="9" width="9.71" hidden="0" customWidth="1"/>
+    <col min="10" max="10" width="22.71" hidden="0" customWidth="1"/>
+    <col min="11" max="11" width="23.71" hidden="0" customWidth="1"/>
     <col min="12" max="12" width="21.71" hidden="0" customWidth="1"/>
+    <col min="13" max="13" width="14.71" hidden="0" customWidth="1"/>
+    <col min="14" max="14" width="17.71" hidden="0" customWidth="1"/>
+    <col min="15" max="15" width="21.71" hidden="0" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="C1" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="B1" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="C1" s="12" t="s">
-        <v>46</v>
-      </c>
       <c r="D1" s="12" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="E1" s="12" t="s">
         <v>37</v>
       </c>
       <c r="F1" s="12" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="G1" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="H1" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="I1" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="J1" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="K1" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="L1" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="H1" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="I1" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="J1" s="12" t="s">
+      <c r="M1" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="K1" s="12" t="s">
+      <c r="N1" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="L1" s="12" t="s">
-        <v>55</v>
+      <c r="O1" s="12" t="s">
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -1541,10 +1627,10 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <cols>
@@ -1565,40 +1651,40 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="C1" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="B1" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="C1" s="12" t="s">
-        <v>46</v>
-      </c>
       <c r="D1" s="12" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="E1" s="12" t="s">
         <v>37</v>
       </c>
       <c r="F1" s="12" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="G1" s="12" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="H1" s="12" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="I1" s="12" t="s">
         <v>33</v>
       </c>
       <c r="J1" s="12" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="K1" s="12" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="L1" s="12" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="M1" s="12" t="s">
         <v>40</v>
@@ -1611,10 +1697,10 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <cols>
@@ -1643,34 +1729,34 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="C1" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="B1" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="C1" s="12" t="s">
-        <v>46</v>
-      </c>
       <c r="D1" s="12" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="E1" s="12" t="s">
         <v>37</v>
       </c>
       <c r="F1" s="12" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="G1" s="12" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="H1" s="12" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="I1" s="12" t="s">
         <v>33</v>
       </c>
       <c r="J1" s="12" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="K1" s="12" t="s">
         <v>24</v>
